--- a/biology/Botanique/Double_Delight/Double_Delight.xlsx
+++ b/biology/Botanique/Double_Delight/Double_Delight.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-‘Double Delight’ (syn. commercial : ‘ANDeli’) est un cultivar de rosier hybride de thé obtenu aux États-Unis en 1976 chez Swim &amp; Ellis à partir de croisement de ‘Granada’ (Linquist, 1963) et de ‘Garden Party’ (Swim, 1959)[1] et commercialisé dès 1978. C'est toujours un grand succès international.
+‘Double Delight’ (syn. commercial : ‘ANDeli’) est un cultivar de rosier hybride de thé obtenu aux États-Unis en 1976 chez Swim &amp; Ellis à partir de croisement de ‘Granada’ (Linquist, 1963) et de ‘Garden Party’ (Swim, 1959) et commercialisé dès 1978. C'est toujours un grand succès international.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rosier remontant, atteignant une hauteur de 80 cm à 1,15 m, est caractérisé par des grosses fleurs au parfum très soutenu, d'une couleur crème évoluant au soleil au rouge carmin. Sa zone de rusticité est 5, c'est-à-dire -25 degrés. Elle est idéale pour les jardins et pour les fleurs à couper.
 On peut notamment l'admirer à la roseraie de Cologne.
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille d'or de Baden Baden, 1976
 Médaille d'or de Rome, 1976
